--- a/Data/Excel Visualization/CarSalesByModelEnd.xlsx
+++ b/Data/Excel Visualization/CarSalesByModelEnd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shiv\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coursera Projects\Data\Excel Visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6BA92BC-C15A-4844-A803-0791AB3719F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587C4A8C-487C-489D-9D03-385060F76055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CarSales" sheetId="2" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
+    <sheet name="Dashboard" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3731,6 +3732,4394 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[CarSalesByModelEnd.xlsx]Sheet1!PivotTable2</c:name>
+    <c:fmtId val="5"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Quantity</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> Sold by Dealer ID</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1217</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1212</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1402</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2644</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2523</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2422</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2238</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2158</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2083</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1738</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1683</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7146-446A-98D6-134DC249AF46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1926548447"/>
+        <c:axId val="1926568127"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1926548447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Dealer ID</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1926568127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1926568127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Quantity</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> Sold</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1926548447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[CarSalesByModelEnd.xlsx]Sheet2!PivotTable3</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Profit</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> by Date and Model</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Beaufort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$5:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2018-01-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018-02-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018-03-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018-04-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018-05-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018-06-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018-07-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018-08-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018-09-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018-10-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018-11-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2018-12-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2019-01-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2019-02-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2019-03-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019-04-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019-05-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019-06-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019-07-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019-08-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2019-09-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019-10-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019-11-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2019-12-01 23:00:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>184500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>214500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239656.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>257288.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>257103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>220500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>148500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>201000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>205500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>129000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>192000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>204000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>223500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>231000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>250500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>256875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>231000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>153000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>208500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>216000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>232500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>133500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ECE2-4A5B-9045-01D2806F34BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Champlain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$5:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2018-01-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018-02-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018-03-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018-04-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018-05-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018-06-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018-07-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018-08-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018-09-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018-10-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018-11-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2018-12-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2019-01-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2019-02-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2019-03-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019-04-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019-05-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019-06-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019-07-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019-08-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2019-09-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019-10-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019-11-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2019-12-01 23:00:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$5:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>94300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81598.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86365</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84411</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>117300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>101200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>117300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>117300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>124200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>126500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>117300</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>71300</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>101200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>101200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>117300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ECE2-4A5B-9045-01D2806F34BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hudson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$5:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2018-01-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018-02-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018-03-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018-04-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018-05-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018-06-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018-07-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018-08-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018-09-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018-10-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018-11-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2018-12-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2019-01-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2019-02-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2019-03-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019-04-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019-05-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019-06-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019-07-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019-08-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2019-09-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019-10-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019-11-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2019-12-01 23:00:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$5:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>143500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>153500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>164500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>556763.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>598225</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>606648</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>172000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>158000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>174000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>148500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>172500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>179000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>193000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>203125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>177500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>117000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>162500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>166000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>179500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>103000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ECE2-4A5B-9045-01D2806F34BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Labrador</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$5:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2018-01-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018-02-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018-03-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018-04-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018-05-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018-06-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018-07-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018-08-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018-09-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018-10-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018-11-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2018-12-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2019-01-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2019-02-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2019-03-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019-04-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019-05-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019-06-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019-07-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019-08-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2019-09-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019-10-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019-11-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2019-12-01 23:00:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$5:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>164800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>189600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>396845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>428747.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>435805.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>197600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>132000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>181600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>184800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>198400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>116000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>172000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>194400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>204800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>224000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>236000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>203200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>135200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>183200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>192000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>203200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ECE2-4A5B-9045-01D2806F34BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$3:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Salish</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$5:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2018-01-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018-02-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018-03-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018-04-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018-05-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018-06-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018-07-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018-08-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018-09-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018-10-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018-11-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2018-12-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2019-01-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2019-02-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2019-03-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019-04-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019-05-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019-06-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019-07-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019-08-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2019-09-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019-10-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019-11-01 23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2019-12-01 23:00:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$5:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>497150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>527650</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>570350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>315018.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>340735</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>347317.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>597800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>396500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>552050</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>558150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600850</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>347700</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>512400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>545950</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>594750</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>625250</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>674050</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>712937.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>610000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>408700</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>573400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>573400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>622200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>353800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-ECE2-4A5B-9045-01D2806F34BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1926603167"/>
+        <c:axId val="1926603647"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1926603167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1926603647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1926603647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t>Profit</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1926603167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[CarSalesByModelEnd.xlsx]Sheet3!PivotTable4</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Profit</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by Year and Dealer ID</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet3!$A$4:$B$26</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="20"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1212</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1215</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1217</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1222</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1224</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1288</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1301</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1336</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1401</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1402</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1212</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1215</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1217</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1222</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1224</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1288</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1301</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1336</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1401</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1402</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$4:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1442501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1546386.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1477022.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1173165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1684246</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1862804</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1782083.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1499372</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1448764.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1254783.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1438925</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1539600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1468762.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1163362.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1648825</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1810750</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1721337.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1441162.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1377400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1187612.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4752-43E4-BD04-E633F20C8123}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1926556607"/>
+        <c:axId val="1926547007"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1926556607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Year</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> and Dealer ID</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1926547007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1926547007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Profit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1926556607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[CarSalesByModelEnd.xlsx]Sheet4!PivotTable5</c:name>
+    <c:fmtId val="10"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Profit</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Hudson Models by Dealer ID</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet4!$A$4:$B$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1212</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1215</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1217</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1222</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1224</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1288</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1301</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1336</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1401</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1402</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Hudson</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>470435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>518798.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>504217.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>381657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>557190</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>621153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>599561.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>501524</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>492880</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>417345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EFCB-4933-93E8-22D987CDD74A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1783698607"/>
+        <c:axId val="1783719727"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1783698607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Dealer</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> ID</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1783719727"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1783719727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Profit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1783698607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3852,6 +8241,166 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5931,6 +10480,2046 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6095,6 +12684,163 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AD382BF-EAB6-4AF3-8E30-95C966BFAB4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BCCDD92-E216-4306-8761-8084B8900851}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA8D772-C2F8-4A8E-8D8C-5D5251FF0592}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2399FE1-8A95-4230-A8A8-FD72741D274E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="44122.105618055553" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1200" xr:uid="{9F8DA634-3909-4EA2-9A85-18F9976A6125}">
   <cacheSource type="worksheet">
@@ -16982,7 +23728,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9BB0D9F4-4C47-443C-AE24-4806F8DF567F}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9BB0D9F4-4C47-443C-AE24-4806F8DF567F}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -17060,8 +23806,17 @@
   <dataFields count="1">
     <dataField name="Sum of Quantity Sold" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="2">
     <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -17084,7 +23839,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2C47EDB-9E24-4068-8FD6-542F41BFFF16}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2C47EDB-9E24-4068-8FD6-542F41BFFF16}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:G29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -17238,7 +23993,7 @@
   <dataFields count="1">
     <dataField name="Sum of Profit" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="5">
+  <chartFormats count="10">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -17299,6 +24054,66 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -17313,7 +24128,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF2A55BA-CB70-4FB4-B63B-6D7D85F046EB}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF2A55BA-CB70-4FB4-B63B-6D7D85F046EB}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:C26" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -17427,8 +24242,17 @@
   <dataFields count="1">
     <dataField name="Sum of Profit" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="2">
     <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -17451,7 +24275,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{11624055-2F15-4F2F-8395-9F4AD550FA32}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{11624055-2F15-4F2F-8395-9F4AD550FA32}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="11">
   <location ref="A3:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="7">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -17534,8 +24358,26 @@
   <dataFields count="1">
     <dataField name="Sum of Profit" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="3">
     <chartFormat chart="7" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -17574,9 +24416,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -17614,9 +24456,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17649,26 +24491,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17701,26 +24526,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -17896,7 +24704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A7125B-85AB-49CA-94B7-4AEC626F3FBA}">
   <dimension ref="A1:G1201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -46638,4 +53446,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F1923B-1493-4630-8110-B1241C74A9E9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>